--- a/my_site/files/Topics.xlsx
+++ b/my_site/files/Topics.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="667">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -72,6 +72,9 @@
     <t xml:space="preserve">Position: fixed, absolute, relative</t>
   </si>
   <si>
+    <t xml:space="preserve">Using several classes: class = "class_1 class_2"</t>
+  </si>
+  <si>
     <t xml:space="preserve">Creating Dockerfile: FROM, ENV, COPY, RUN, CMD [....,....,....,.....], EXPOSE [port]</t>
   </si>
   <si>
@@ -87,7 +90,7 @@
     <t xml:space="preserve">Removing containers and images: docker rm [name], docker rmi [name]</t>
   </si>
   <si>
-    <t xml:space="preserve">Create local repository with init</t>
+    <t xml:space="preserve">Create local repository with git init</t>
   </si>
   <si>
     <t xml:space="preserve">Git</t>
@@ -108,19 +111,94 @@
     <t xml:space="preserve">Using git rm –cached [filename] to delete from index (staging area)</t>
   </si>
   <si>
-    <t xml:space="preserve">Using git reset –hard HEAD~n to return to the previous commit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Using git clone [repository] to clone a repository from the remote place</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git branch [branch_name] for creating branch, git branch to show the list (and current)</t>
+    <t xml:space="preserve">git reset --hard HEAD~n, git reset –soft HEAD~ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using git clone [repository], git clone -b [repository] [branch]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git branch [branch_name], git branch </t>
   </si>
   <si>
     <t xml:space="preserve">git push [remote_repo] –delete [branch_name]</t>
   </si>
   <si>
-    <t xml:space="preserve">git branch -m main master for renaming a branch</t>
+    <t xml:space="preserve">git branch -m main master </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using git remote -v for listing remote repositories, list for each repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git pull (We don't have to use password), can do it after clone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using git commit -am 'message' to add and commit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git stash, git stash save 'message', git stash list, git stash drop, git stash clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git stash apply, git stash apply stash@{N], git stash apply --index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git merge [branch_name], git merge, merge commit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git merge --abort, git merge –continue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git branch -d [name], git branch -D [name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git fetch, get fetch –all, difference from git pull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git diff, git diff [branch1] [branch2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git commit --amend -m [message], git commit --amend --no-edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git push -f [origin] master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git reset --hard origin/master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git checkout [name], git checkout -b [name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git checkout [hash]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git rebase [name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git rebase --abort, --continue, --skip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git rebase --onto .....~n ...~n </t>
+  </si>
+  <si>
+    <t xml:space="preserve">git rebase --onto branch~ HEAD~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git rebase -i HEAD~n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git rebase -i HEAD~n pick and squash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git reflog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone -o [name]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git bisect start, good, bad, reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git revert</t>
   </si>
   <si>
     <t xml:space="preserve">Lists: ordered and unordered lists &lt;ol&gt;&lt;/ol&gt; and &lt;ul&gt;&lt;/ul&gt;</t>
@@ -297,6 +375,9 @@
     <t xml:space="preserve">String datatype</t>
   </si>
   <si>
+    <t xml:space="preserve">SetAttribute(,), removeAttribute()</t>
+  </si>
+  <si>
     <t xml:space="preserve">Difference between TCP and UDP</t>
   </si>
   <si>
@@ -321,7 +402,7 @@
     <t xml:space="preserve">Python</t>
   </si>
   <si>
-    <t xml:space="preserve">Lists: creating from iterable list(iterator)</t>
+    <t xml:space="preserve">Lists: creating from iterable list(iterator) and generator list(generator)</t>
   </si>
   <si>
     <t xml:space="preserve">Lists: sublists [:] and [::]. Negative indexes.</t>
@@ -339,6 +420,9 @@
     <t xml:space="preserve">Dictionaries. Iterating through dictionaries. Dictionaries comprehension {x:f(x) for x in obj}</t>
   </si>
   <si>
+    <t xml:space="preserve">Dictionaries: KeyError exception</t>
+  </si>
+  <si>
     <t xml:space="preserve">Using function zip() for making a dict from two lists. Zip object</t>
   </si>
   <si>
@@ -369,6 +453,9 @@
     <t xml:space="preserve">Functions round([],[]) and abs([])</t>
   </si>
   <si>
+    <t xml:space="preserve">AriphmeticError: DivizionByZeroError, FloatingPointError, OverflowError</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type str. Concatenation of strings. Using str().</t>
   </si>
   <si>
@@ -483,7 +570,10 @@
     <t xml:space="preserve">Using @property decorator for creating a property as a function</t>
   </si>
   <si>
-    <t xml:space="preserve">Descriptors: creating classes with __get__(self,obj,) and __set__()</t>
+    <t xml:space="preserve">Descriptors: classes with __get__(self, obj) and __set__(self, obj, val), using _val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BaseException, Exception, SysExit, MemoryError</t>
   </si>
   <si>
     <t xml:space="preserve">Import modules. Import methods and classes from modules. Aliases</t>
@@ -519,6 +609,9 @@
     <t xml:space="preserve">Using os.path: dirname(), basename(), join(,), isfile(), isdir(), islink()</t>
   </si>
   <si>
+    <t xml:space="preserve">Using os._exit(code) (difference from sys.exit())</t>
+  </si>
+  <si>
     <t xml:space="preserve">Opening a file in different modes: 'r', 'rb', 'w', 'wb'</t>
   </si>
   <si>
@@ -543,6 +636,9 @@
     <t xml:space="preserve">Writing bytes into a file</t>
   </si>
   <si>
+    <t xml:space="preserve">FileNotFoundException, FileExistsError, NotADirectoryError, IsADirectoryError</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bytearrays. Creating from list. Converting to list. Range of numbers</t>
   </si>
   <si>
@@ -552,7 +648,7 @@
     <t xml:space="preserve">Converting strings to bytes, using different coding. Reading varbinary from sql</t>
   </si>
   <si>
-    <t xml:space="preserve">Converting bytes to string, decode() method (utf-8, cp1251,........), hex()</t>
+    <t xml:space="preserve">Converting bytes to string, decode() method (utf-8, cp1251,........), hex(), default utf-8</t>
   </si>
   <si>
     <t xml:space="preserve">Property __file__ of a module</t>
@@ -567,16 +663,19 @@
     <t xml:space="preserve">Iterators</t>
   </si>
   <si>
+    <t xml:space="preserve">Iterating as obj.__next__(). StopIteration exception.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iterating through the iterable object: for x in iterable:</t>
   </si>
   <si>
-    <t xml:space="preserve">Defining generator as def.....yield. Generator object. Using parameters.</t>
+    <t xml:space="preserve">Defining generator as def.....yield. Generator object (return of function). Using parameters.</t>
   </si>
   <si>
     <t xml:space="preserve">Generators</t>
   </si>
   <si>
-    <t xml:space="preserve">Iterating generator.</t>
+    <t xml:space="preserve">Iterating generator. Iterating as while.... gen.__next__()</t>
   </si>
   <si>
     <t xml:space="preserve">Datetime class. Creating new datetime(,,,,,) object. Function now()</t>
@@ -594,12 +693,15 @@
     <t xml:space="preserve">Time difference. Timedelta() class</t>
   </si>
   <si>
-    <t xml:space="preserve">Getting timerange for month: monthrange(,)</t>
+    <t xml:space="preserve">Getting timerange for month: monthrange(year,month)  (first_weekday,days)</t>
   </si>
   <si>
     <t xml:space="preserve">Calendar module</t>
   </si>
   <si>
+    <t xml:space="preserve">Using monthcalendar() for a matrix.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Getting a weekday: weekday(,,)</t>
   </si>
   <si>
@@ -702,6 +804,15 @@
     <t xml:space="preserve">Requests module</t>
   </si>
   <si>
+    <t xml:space="preserve">request.exceptions (Timeout)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get(..., timeout=val). Try …... except TimeoutException …... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept header (example: application/xml, application/json)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Headers of the result. Content-type and Content-disposition</t>
   </si>
   <si>
@@ -756,6 +867,9 @@
     <t xml:space="preserve">Sys module: sys.path. Creating files .pth for directories</t>
   </si>
   <si>
+    <t xml:space="preserve">Sys module: sys.exit(code). SysExit.code for finally .... operators</t>
+  </si>
+  <si>
     <t xml:space="preserve">Defining a decorator. Applying a decorator</t>
   </si>
   <si>
@@ -1248,6 +1362,57 @@
     <t xml:space="preserve">Importlib module. import_module function</t>
   </si>
   <si>
+    <t xml:space="preserve">environ dict. Using get() function. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PYTHONPATH variable. Using sys.path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">os.open, io.open and open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sys.stdout.write(....). Difference from print()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sys.stdin.read(....). Using input()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using // in python.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int(float) = floor(float)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modulus: % int and floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets: uniqueness, add(elem), set(), remove(elem)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets: union() |, intersection() &amp;, difference() -, symmetric_difference() ^</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets: membership tests in, issubset() function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map(func, iterable) function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filter(func, iterable) function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object.__doc__</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting used memory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">psutil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting CPU percentage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Integer datatypes (int, smallint, bigint, tinyint)</t>
   </si>
   <si>
@@ -1272,16 +1437,19 @@
     <t xml:space="preserve">Type uniqueidentifier. Function NEWID(). Postgres: uuid() type</t>
   </si>
   <si>
+    <t xml:space="preserve">SQL Server: datatypes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Datetime types: datetime, date, time. Autoconverting. </t>
   </si>
   <si>
     <t xml:space="preserve">Datetime types: functions DATEDIFF(), DATEADD()</t>
   </si>
   <si>
-    <t xml:space="preserve">XML datatype. Autocheck in SQL server.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XML datatype: using Xquery in SQL server</t>
+    <t xml:space="preserve">SQL Server: functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XML datatype. Autocheck, using Xquery</t>
   </si>
   <si>
     <t xml:space="preserve">User datatypes</t>
@@ -1293,7 +1461,7 @@
     <t xml:space="preserve">Using special symbols in square brackets.</t>
   </si>
   <si>
-    <t xml:space="preserve">Square brackets</t>
+    <t xml:space="preserve">SQL Server: syntax</t>
   </si>
   <si>
     <t xml:space="preserve">Using reserved words in square brackets.</t>
@@ -1431,7 +1599,7 @@
     <t xml:space="preserve">JOINS of 3 and more tables</t>
   </si>
   <si>
-    <t xml:space="preserve">Unions, Union distinct</t>
+    <t xml:space="preserve">UNION, UNION distinct</t>
   </si>
   <si>
     <t xml:space="preserve">Ordering (ORDER BY). Ordering by several columns.</t>
@@ -1455,7 +1623,10 @@
     <t xml:space="preserve">Global temporary tables.</t>
   </si>
   <si>
-    <t xml:space="preserve">Create TEMPORARY (TEMP) TABLE (.....) in Postgres</t>
+    <t xml:space="preserve">Create TEMPORARY (TEMP) TABLE (.....)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postgres expressions</t>
   </si>
   <si>
     <t xml:space="preserve">Creating a user (in SQL server and Postgres). Dropping a user.</t>
@@ -1500,18 +1671,21 @@
     <t xml:space="preserve">Connection to SQL server in local network: tcp:[Name], tcp:[local_Ip_address]</t>
   </si>
   <si>
+    <t xml:space="preserve">SQL Server: connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connection to SQL server through internet: [ip][port_number]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server name, windows and SQL server authentification ([Computer name]\[Server name])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connection: enabling port in windows firewall</t>
+  </si>
+  <si>
     <t xml:space="preserve">Connection</t>
   </si>
   <si>
-    <t xml:space="preserve">Connection to SQL server through internet: [ip][port_number]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server name, windows and SQL server authentification ([Computer name]\[Server name])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connection: enabling port in windows firewall</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enabling tcp/ip in SQL server. Specifying port.</t>
   </si>
   <si>
@@ -1551,21 +1725,27 @@
     <t xml:space="preserve">Start and stop postgres in linux: sudo service postgres start/stop</t>
   </si>
   <si>
+    <t xml:space="preserve">Postgres administrating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE INDEX UNIQUE, ASC, DESC, NULLS first/last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postgres indexes and sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE INDEX USING b-tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE INDEX CONCURRENTLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUNCATE table [name]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Postgres</t>
   </si>
   <si>
-    <t xml:space="preserve">CREATE INDEX UNIQUE, ASC, DESC, NULLS first/last</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREATE INDEX USING b-tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CREATE INDEX CONCURRENTLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Truncate table</t>
-  </si>
-  <si>
     <t xml:space="preserve">psycopg2 module. Objects connection, cursor, execute(), commit()</t>
   </si>
   <si>
@@ -1575,12 +1755,42 @@
     <t xml:space="preserve">Smallserial, serial, bigserial types</t>
   </si>
   <si>
-    <t xml:space="preserve">Recursive queries</t>
-  </si>
-  <si>
     <t xml:space="preserve">Using LIMIT and OFFSET</t>
   </si>
   <si>
+    <t xml:space="preserve">Datetime functions: date_trunc(.....)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAITFOR DELAY '.....', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Server: programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT pg_sleep([time])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table pg_locks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variables: DO $$ DECLARE v type := val BEGIN ........  END $$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXCEPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">READ UNCOMMITED, COMMITED, REPEATABLE, SERIALIZABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using EXPLAIN for a query plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock [Table_name] IN [Shave, Exclusive] MODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock rows: SELECT .... WHERE .... FOR UPDATE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apache: setting port with: Listen [port_number]</t>
   </si>
   <si>
@@ -1663,6 +1873,156 @@
   </si>
   <si>
     <t xml:space="preserve">Editing file hosts in windows and linux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type "char". Returning value. Type name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postgres: datatypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using CAST(..... as ....), value::type, type(value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using "...." in Postges with identifiers. Using U&amp;"/..../....."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postgres: syntax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WITH for SELECT (Common table expressions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postgres: expressions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WITH RECURSIVE ..... AS (.....)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using VALUES as SELECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agg(column) OVER (Partition by .....)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expressions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over (Partition by .... order by ....)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVER(), OVER(Order by ....). Subquery for filtering and grouping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window w as (PARTITION .......)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column -&gt; key, column -&gt;&gt; 'key'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postgres json and xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column -&gt; key -&gt; key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XMLPARSE, XMLSerialize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bit(n), bit and bit varying(n), B '10101010', bit::integer, bit::char(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bit ||, &amp;, |, #, ~, &lt;&lt; 2, &gt;&gt; 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int2, int4, int8, smallint, int, bigint, integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float4, float8, real, double precision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logic operators (with TRUE, FALSE, NULL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operators &lt;,&gt;, &lt;=,&gt;=,=,&lt;&gt;,!=, between (&lt;= abd &gt;=)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operators %, /, ^, |/, ||/, @</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trigger functions. NEW and OLD fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postgres: triggers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE TRIGGER ..... ON [table] .....FOR each row execute funcname()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trigger BEFORE, AFTER, INSTEAD OF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF ..... THEN   ...... END IF;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postgres: programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAISE EXCEPTION .....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$$ ..... $$ LANGUAGE plpgsql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNION and CASE type conversion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE sequence INCREMENT BY val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currval('seq_name'), nextval('seq_name'), setval('seq_name',value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postgres datatypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geom types: point, box, circle, path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geom functions: area(), center()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int4range, int8range, daterange, tsrange, numrange, [ and )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ranges: &lt;@, &amp;&amp;, |, upper(), lower(), isempty()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiline strings '....'\n'.....'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xpath(path, xml), xpath(.....)[0], /.../...[val=.....]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_typeof(....)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrays, int[][], interer ARRAY[][], range out null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enum (val1, ...., valN). CREATE TYPE .... as enum ..... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregate(..... ORDER BY ......)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string_agg()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order by a column with index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUSTER table ON [index_name]</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +2033,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1704,6 +2064,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1751,7 +2117,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1761,6 +2127,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1782,7 +2152,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C466"/>
+  <dimension ref="A1:C589"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1790,7 +2160,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="65.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.7"/>
   </cols>
@@ -1806,20 +2176,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="15.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>4</v>
@@ -1830,7 +2194,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>4</v>
@@ -1841,7 +2205,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>4</v>
@@ -1852,7 +2216,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>4</v>
@@ -1863,7 +2227,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>4</v>
@@ -1874,7 +2238,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>4</v>
@@ -1885,7 +2249,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>4</v>
@@ -1896,7 +2260,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>4</v>
@@ -1907,7 +2271,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>4</v>
@@ -1918,7 +2282,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>4</v>
@@ -1928,4997 +2292,6152 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>16</v>
+      <c r="A13" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
+      <c r="A28" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>36</v>
+      <c r="A29" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>37</v>
+      <c r="A30" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>38</v>
+      <c r="A31" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="B50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="B52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="B53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="B54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="B55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="B56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="B57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="B61" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="C61" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B62" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="B63" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="B64" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>108</v>
+      <c r="A85" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>110</v>
+      <c r="A86" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>111</v>
+      <c r="A87" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>113</v>
+      <c r="A88" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>114</v>
+      <c r="A89" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>115</v>
+      <c r="A90" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>116</v>
+      <c r="A91" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+      <c r="B111" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
+      <c r="C111" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
+      <c r="B112" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
+      <c r="C112" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B115" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B99" s="0" t="s">
+      <c r="C115" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B116" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C99" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>67</v>
-      </c>
       <c r="C116" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>148</v>
+      <c r="A122" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>149</v>
+      <c r="A123" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>150</v>
+      <c r="A124" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>151</v>
+      <c r="A125" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
-        <v>157</v>
+      <c r="A130" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
-        <v>158</v>
+      <c r="A131" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="s">
-        <v>160</v>
+      <c r="A132" s="0" t="s">
+        <v>144</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
-        <v>161</v>
+      <c r="A133" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
-        <v>201</v>
+      <c r="A164" s="0" t="s">
+        <v>177</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
-        <v>202</v>
+      <c r="A165" s="0" t="s">
+        <v>178</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
-        <v>203</v>
+      <c r="A166" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
-        <v>204</v>
+      <c r="A167" s="0" t="s">
+        <v>180</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
-        <v>205</v>
+      <c r="A168" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
-        <v>206</v>
+      <c r="A169" s="0" t="s">
+        <v>182</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
-        <v>207</v>
+      <c r="A170" s="0" t="s">
+        <v>183</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
-        <v>209</v>
+      <c r="A171" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
-        <v>210</v>
+      <c r="A172" s="0" t="s">
+        <v>186</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B210" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C194" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
+      <c r="B211" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B195" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C195" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
+      <c r="B212" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B213" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C196" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
+      <c r="B214" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B197" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="C197" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
+      <c r="B215" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B198" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C198" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
+      <c r="B216" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B217" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C199" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
+      <c r="C217" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B218" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C200" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
+      <c r="C218" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B219" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C201" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
+      <c r="B223" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="C223" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C202" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
+      <c r="B224" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B203" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C203" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
+      <c r="B225" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B204" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C204" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
+      <c r="C225" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B205" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C205" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
+      <c r="B226" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B227" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C227" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C206" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
+      <c r="B228" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C228" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B207" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C207" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
+      <c r="B229" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C229" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B208" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C208" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
+      <c r="B230" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C230" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B209" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C209" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
+      <c r="B231" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B210" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C210" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
+      <c r="C231" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B211" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
+      <c r="B232" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C232" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B212" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C212" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
+      <c r="B233" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="C233" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C213" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
+      <c r="B234" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C234" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B214" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="C214" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
+      <c r="B235" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C235" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B215" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
+      <c r="B236" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C236" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B237" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C237" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C216" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
+      <c r="B238" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C238" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B217" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="C217" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
+      <c r="B239" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C239" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B218" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="C218" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
+      <c r="B240" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C240" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B219" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="C219" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
+      <c r="B241" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C241" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B220" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="C220" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
+      <c r="B242" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B221" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="C221" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
+      <c r="C242" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B222" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C222" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
+      <c r="B243" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C243" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B223" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
+      <c r="B244" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B224" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C224" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="B225" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="B226" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="B227" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="B228" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="B229" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="B230" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="B231" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C231" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="B232" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C232" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="B233" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C233" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="B234" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="B235" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C235" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="B236" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C236" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="B237" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="B238" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C238" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B239" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C239" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="B240" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="B241" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C241" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="B242" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C242" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="B243" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C243" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="B244" s="0" t="s">
-        <v>238</v>
-      </c>
       <c r="C244" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="C245" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2" t="s">
-        <v>294</v>
+      <c r="A246" s="0" t="s">
+        <v>274</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C246" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="2" t="s">
-        <v>295</v>
+      <c r="A247" s="0" t="s">
+        <v>276</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>238</v>
+        <v>116</v>
       </c>
       <c r="C247" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2" t="s">
-        <v>296</v>
+      <c r="A248" s="0" t="s">
+        <v>277</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="C248" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2" t="s">
-        <v>297</v>
+      <c r="A249" s="0" t="s">
+        <v>278</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="C249" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="2" t="s">
-        <v>298</v>
+      <c r="A250" s="0" t="s">
+        <v>280</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="C250" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C251" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C252" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C253" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C254" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C255" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C256" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C257" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C258" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="B259" s="0" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C259" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="C260" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="C261" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="C262" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="2" t="s">
-        <v>313</v>
+      <c r="A263" s="0" t="s">
+        <v>296</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="C263" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C264" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C265" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>317</v>
+        <v>124</v>
       </c>
       <c r="C266" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C267" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C268" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C269" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="C270" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="C271" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C272" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="C273" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="C274" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="C275" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="C276" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="C277" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="C278" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="C279" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="C280" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="C281" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="C282" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="C283" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C284" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C285" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C286" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="C287" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="C288" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="C289" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="C290" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C291" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C292" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C293" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C294" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C295" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C296" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
-        <v>353</v>
+      <c r="A297" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C297" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="0" t="s">
-        <v>354</v>
+      <c r="A298" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C298" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="0" t="s">
-        <v>355</v>
+      <c r="A299" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C299" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="0" t="s">
-        <v>356</v>
+      <c r="A300" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C300" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="0" t="s">
-        <v>357</v>
+      <c r="A301" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C301" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="B302" s="0" t="s">
-        <v>97</v>
+        <v>338</v>
       </c>
       <c r="C302" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="B303" s="0" t="s">
-        <v>97</v>
+        <v>338</v>
       </c>
       <c r="C303" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B304" s="0" t="s">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="C304" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="B305" s="0" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C305" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="B306" s="0" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C306" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="B307" s="0" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="C307" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="B308" s="0" t="s">
-        <v>238</v>
+        <v>338</v>
       </c>
       <c r="C308" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="B309" s="0" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="C309" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="B310" s="0" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="C310" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="B311" s="0" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
       <c r="C311" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="B312" s="0" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
       <c r="C312" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="B313" s="0" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
       <c r="C313" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="0" t="s">
-        <v>372</v>
+      <c r="A314" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="B314" s="0" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C314" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="B315" s="0" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="C315" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="B316" s="0" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="C316" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="B317" s="0" t="s">
-        <v>238</v>
+        <v>355</v>
       </c>
       <c r="C317" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="B318" s="0" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C318" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="B319" s="0" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C319" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B320" s="0" t="s">
-        <v>238</v>
+        <v>358</v>
       </c>
       <c r="C320" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="B321" s="0" t="s">
-        <v>245</v>
+        <v>358</v>
       </c>
       <c r="C321" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="B322" s="0" t="s">
-        <v>245</v>
+        <v>363</v>
       </c>
       <c r="C322" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="2" t="s">
-        <v>383</v>
+      <c r="A323" s="0" t="s">
+        <v>364</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>67</v>
+        <v>355</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="B324" s="0" t="s">
-        <v>245</v>
+        <v>355</v>
       </c>
       <c r="C324" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="B325" s="0" t="s">
-        <v>238</v>
+        <v>355</v>
       </c>
       <c r="C325" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="B326" s="0" t="s">
-        <v>83</v>
+        <v>368</v>
       </c>
       <c r="C326" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="B327" s="0" t="s">
-        <v>83</v>
+        <v>368</v>
       </c>
       <c r="C327" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="B328" s="0" t="s">
-        <v>83</v>
+        <v>368</v>
       </c>
       <c r="C328" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B329" s="0" t="s">
-        <v>238</v>
+        <v>368</v>
       </c>
       <c r="C329" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="B330" s="0" t="s">
-        <v>238</v>
+        <v>368</v>
       </c>
       <c r="C330" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="B331" s="0" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="C331" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="B332" s="0" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="C332" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="B333" s="0" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="B334" s="0" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="B335" s="0" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="B336" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="B337" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="B338" s="0" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B339" s="0" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="B340" s="0" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="B341" s="0" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="B342" s="0" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="B343" s="0" t="s">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="B344" s="0" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="B345" s="0" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="B346" s="0" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="C346" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="B347" s="0" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="C347" s="0" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="2" t="s">
-        <v>408</v>
+      <c r="A348" s="0" t="s">
+        <v>391</v>
       </c>
       <c r="B348" s="0" t="s">
-        <v>409</v>
+        <v>275</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="2" t="s">
-        <v>411</v>
+      <c r="A349" s="0" t="s">
+        <v>392</v>
       </c>
       <c r="B349" s="0" t="s">
-        <v>409</v>
+        <v>275</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="2" t="s">
-        <v>412</v>
+      <c r="A350" s="0" t="s">
+        <v>393</v>
       </c>
       <c r="B350" s="0" t="s">
-        <v>409</v>
+        <v>275</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="2" t="s">
-        <v>413</v>
+      <c r="A351" s="0" t="s">
+        <v>394</v>
       </c>
       <c r="B351" s="0" t="s">
-        <v>409</v>
+        <v>275</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="2" t="s">
-        <v>414</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="0" t="s">
+        <v>395</v>
       </c>
       <c r="B352" s="0" t="s">
-        <v>409</v>
+        <v>275</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="353" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="2" t="s">
-        <v>415</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="0" t="s">
+        <v>396</v>
       </c>
       <c r="B353" s="0" t="s">
-        <v>409</v>
+        <v>124</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="2" t="s">
-        <v>416</v>
+      <c r="A354" s="0" t="s">
+        <v>397</v>
       </c>
       <c r="B354" s="0" t="s">
-        <v>409</v>
+        <v>124</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="2" t="s">
-        <v>417</v>
+      <c r="A355" s="0" t="s">
+        <v>398</v>
       </c>
       <c r="B355" s="0" t="s">
-        <v>409</v>
+        <v>275</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="2" t="s">
-        <v>418</v>
+      <c r="A356" s="0" t="s">
+        <v>399</v>
       </c>
       <c r="B356" s="0" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="2" t="s">
-        <v>419</v>
+      <c r="A357" s="0" t="s">
+        <v>401</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C357" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="2" t="s">
-        <v>420</v>
+      <c r="A358" s="0" t="s">
+        <v>402</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="2" t="s">
-        <v>421</v>
+      <c r="A359" s="0" t="s">
+        <v>403</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>409</v>
+        <v>275</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C362" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="B365" s="0" t="s">
-        <v>426</v>
+        <v>89</v>
       </c>
       <c r="C365" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C366" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C367" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>426</v>
+        <v>275</v>
       </c>
       <c r="C368" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="B369" s="0" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C369" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C370" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="B371" s="0" t="s">
-        <v>426</v>
+        <v>275</v>
       </c>
       <c r="C371" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>426</v>
+        <v>283</v>
       </c>
       <c r="C372" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>426</v>
+        <v>283</v>
       </c>
       <c r="C373" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="0" t="s">
-        <v>438</v>
+      <c r="A374" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>426</v>
+        <v>93</v>
       </c>
       <c r="C374" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>440</v>
+        <v>283</v>
       </c>
       <c r="C375" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>440</v>
+        <v>275</v>
       </c>
       <c r="C376" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>440</v>
+        <v>109</v>
       </c>
       <c r="C377" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>440</v>
+        <v>109</v>
       </c>
       <c r="C378" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>440</v>
+        <v>109</v>
       </c>
       <c r="C379" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>446</v>
+        <v>275</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>446</v>
+        <v>275</v>
       </c>
       <c r="C381" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>446</v>
+        <v>275</v>
       </c>
       <c r="C382" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>446</v>
+        <v>275</v>
       </c>
       <c r="C383" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>446</v>
+        <v>275</v>
       </c>
       <c r="C384" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>452</v>
+        <v>275</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>452</v>
+        <v>185</v>
       </c>
       <c r="C386" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>452</v>
+        <v>275</v>
       </c>
       <c r="C387" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>452</v>
+        <v>275</v>
       </c>
       <c r="C388" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>452</v>
+        <v>275</v>
       </c>
       <c r="C389" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>452</v>
+        <v>275</v>
       </c>
       <c r="C390" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>459</v>
+        <v>275</v>
       </c>
       <c r="C391" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>460</v>
+        <v>439</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>459</v>
+        <v>275</v>
       </c>
       <c r="C392" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>461</v>
+        <v>440</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>459</v>
+        <v>275</v>
       </c>
       <c r="C393" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>462</v>
+        <v>441</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>459</v>
+        <v>89</v>
       </c>
       <c r="C394" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>463</v>
+        <v>442</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>459</v>
+        <v>355</v>
       </c>
       <c r="C395" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>459</v>
+        <v>355</v>
       </c>
       <c r="C396" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>459</v>
+        <v>249</v>
       </c>
       <c r="C397" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>459</v>
+        <v>185</v>
       </c>
       <c r="C398" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>459</v>
+        <v>193</v>
       </c>
       <c r="C399" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>459</v>
+        <v>193</v>
       </c>
       <c r="C400" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>459</v>
+        <v>193</v>
       </c>
       <c r="C401" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>459</v>
+        <v>279</v>
       </c>
       <c r="C402" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>459</v>
+        <v>279</v>
       </c>
       <c r="C403" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>473</v>
+        <v>89</v>
       </c>
       <c r="C404" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>473</v>
+        <v>89</v>
       </c>
       <c r="C405" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>473</v>
+        <v>124</v>
       </c>
       <c r="C406" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>473</v>
+        <v>124</v>
       </c>
       <c r="C407" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>473</v>
+        <v>124</v>
       </c>
       <c r="C408" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>479</v>
+        <v>89</v>
       </c>
       <c r="C409" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>479</v>
+        <v>89</v>
       </c>
       <c r="C410" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>479</v>
+        <v>89</v>
       </c>
       <c r="C411" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>479</v>
+        <v>89</v>
       </c>
       <c r="C412" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="C413" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="2" t="s">
-        <v>484</v>
+      <c r="A414" s="0" t="s">
+        <v>462</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="C414" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="415" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="0" t="s">
-        <v>485</v>
-      </c>
-      <c r="B415" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="C415" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="416" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="0" t="s">
-        <v>487</v>
-      </c>
-      <c r="B416" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="C416" s="0" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="0" t="s">
-        <v>488</v>
+      <c r="A417" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="C417" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="0" t="s">
-        <v>490</v>
+      <c r="A418" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="C418" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
-        <v>491</v>
+      <c r="A419" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="C419" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="0" t="s">
-        <v>493</v>
+      <c r="A420" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="C420" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="421" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="0" t="s">
-        <v>494</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="C421" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="422" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
-        <v>495</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="C422" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="0" t="s">
-        <v>496</v>
+      <c r="A423" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="C423" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="0" t="s">
-        <v>497</v>
+      <c r="A424" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="C424" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
-        <v>498</v>
+      <c r="A425" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>109</v>
+        <v>471</v>
       </c>
       <c r="C425" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="0" t="s">
-        <v>499</v>
+      <c r="A426" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="C426" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
-        <v>501</v>
+      <c r="A427" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="C427" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="C428" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="C429" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C430" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C431" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C432" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C433" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="C434" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="C435" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="C436" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="C437" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="C438" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="C439" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="C440" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="C441" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="C442" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="C443" s="0" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C444" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C445" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C446" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C447" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C448" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C449" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C450" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C451" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C452" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="C453" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="C454" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="C455" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="C456" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="C457" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="C458" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="C459" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="C460" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C461" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C462" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C463" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C464" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C465" s="0" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B466" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C466" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B467" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C467" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B468" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C468" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B469" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C469" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B470" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C470" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B471" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B472" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C472" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B473" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C473" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B474" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B475" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B476" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B477" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C477" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B478" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C478" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B479" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B480" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C480" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B481" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C481" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B482" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="C482" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B483" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="C483" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B484" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="C484" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B485" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="B466" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="C466" s="0" t="s">
-        <v>521</v>
+      <c r="C485" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B486" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="C486" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B487" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="C487" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B488" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="C488" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B489" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="C489" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B490" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="C490" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B491" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="C491" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B492" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="C492" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B493" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C493" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B494" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C494" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="0" t="s">
+        <v>559</v>
+      </c>
+      <c r="B495" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C495" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B496" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C496" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="B497" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C497" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B498" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C498" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B499" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C499" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B500" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C500" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B501" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C501" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B502" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="C502" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B503" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C503" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="B504" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C504" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B505" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C505" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B506" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C506" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B507" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C507" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B508" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C508" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="B509" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C509" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="B510" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C510" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B511" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C511" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="0" t="s">
+        <v>579</v>
+      </c>
+      <c r="B512" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="C512" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="B513" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="C513" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B514" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C514" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="B515" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C515" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B516" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C516" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B517" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C517" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B518" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C518" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B519" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C519" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B520" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C520" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="B523" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C523" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B524" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C524" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="0" t="s">
+        <v>593</v>
+      </c>
+      <c r="B525" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C525" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="B526" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C526" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="B527" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C527" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="0" t="s">
+        <v>596</v>
+      </c>
+      <c r="B528" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C528" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B529" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C529" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="B530" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C530" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B531" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C531" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="B532" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C532" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="B533" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C533" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B534" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C534" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="B535" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C535" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B536" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C536" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B537" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="C537" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B538" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="C538" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B539" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="C539" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B540" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C540" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B541" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C541" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B542" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C542" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B543" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C543" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B544" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="C544" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="B545" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="C545" s="0" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="B548" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="C548" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="B549" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="C549" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="B550" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="C550" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B551" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="C551" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B552" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="C552" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B553" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="C553" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B554" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="C554" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B555" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="C555" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B556" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="C556" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B557" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="C557" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B558" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C558" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B559" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C559" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="B560" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C560" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B561" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="C561" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="B562" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="C562" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="B563" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="C563" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B564" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="C564" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="B565" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="C565" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="B566" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="C566" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="B567" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="C567" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B568" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="C568" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B569" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="C569" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="B570" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="C570" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B571" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="C571" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B572" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="C572" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="B573" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="C573" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="B574" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="C574" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B575" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C575" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="B576" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="C576" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B577" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="C577" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B578" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="C578" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="B579" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="C579" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B580" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="C580" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="B581" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="C581" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B582" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C582" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="B583" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="C583" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="B584" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="C584" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="B585" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="C585" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="B586" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C586" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B587" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="C587" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="B588" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C588" s="0" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="B589" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C589" s="0" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
